--- a/character_instrument.xlsx
+++ b/character_instrument.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dikshant\Documents\Personal_Projects\TFA music Graphs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dikshant\Documents\GitHub\TFA_Score_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Instruments</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Jedi Temple</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
@@ -443,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,6 +521,9 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
